--- a/data/plane1.xlsx
+++ b/data/plane1.xlsx
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Num Orientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plane 1</t>
   </si>
   <si>
     <t xml:space="preserve">Strike</t>
@@ -38,7 +41,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -60,28 +63,19 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -125,7 +119,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -134,16 +128,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -163,15 +153,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -187,175 +177,184 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
-        <v>47</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>32</v>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="B13" s="3" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+      <c r="B14" s="3" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="B14" s="4" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+      <c r="B15" s="3" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
         <v>52</v>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B21" s="3" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
         <v>47</v>
       </c>
-      <c r="B22" s="4" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+      <c r="B23" s="3" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B24" s="3" t="n">
         <v>39</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
